--- a/Person/李文柔/用户故事1.xlsx
+++ b/Person/李文柔/用户故事1.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27286\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\软件工程\software\software-process-homework\Person\李文柔\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBB9EA2-87DF-4BDD-AB87-7E3061F1206D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD93D47D-EBD8-4EB9-A6FF-BB78F829D0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CF78549D-B9D6-4089-B8E6-2A74A182FECA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -36,14 +25,53 @@
     <author>Luc Segers</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B289DEDF-998A-47F6-9F41-18C0EED95AE8}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert the name of the project</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert the descript of the Vision</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{4FE1DFA0-0E39-497C-B933-E6FBA9E09200}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="等线"/>
-            <family val="2"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -53,7 +81,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="等线"/>
-            <family val="2"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -62,14 +89,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{354AD55B-4394-4B8C-BABB-EDDD07468D43}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{DDF73BF7-9741-4384-B01C-5739CA922324}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="等线"/>
-            <family val="2"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -79,7 +105,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="等线"/>
-            <family val="2"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -89,14 +114,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{BF45202F-D83F-4627-83FD-080324BEFE07}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{4470A1B2-7DEF-4C8F-AB57-3F33502296E1}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="等线"/>
-            <family val="2"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -106,7 +130,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="等线"/>
-            <family val="2"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -128,14 +151,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4F415944-BB32-484D-BFAC-42590C8745B3}">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{57B9BE34-0473-40E9-A919-2B5793219227}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="等线"/>
-            <family val="2"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -145,7 +167,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="等线"/>
-            <family val="2"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -156,14 +177,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{CE8A3F15-B0E5-4E3E-B443-4F76D8487812}">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{17808CAB-3F79-4631-8B3A-98928FA1C288}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="等线"/>
-            <family val="2"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -173,7 +193,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="等线"/>
-            <family val="2"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -190,7 +209,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>Name :</t>
+  </si>
+  <si>
+    <t>吾宠</t>
+  </si>
+  <si>
+    <t>Vision:</t>
+  </si>
+  <si>
+    <t>《吾宠》打造出一款关爱宠物生活、满足人们通过发布和共享动态来分享养宠方法及日常的需求、通过宠物活动和打卡互动提高宠物和人的亲密度的宠物APP。</t>
+  </si>
   <si>
     <t>引用编号</t>
   </si>
@@ -210,91 +244,188 @@
     <t>优先级</t>
   </si>
   <si>
+    <t>如何演示</t>
+  </si>
+  <si>
     <t>user story</t>
   </si>
   <si>
     <t xml:space="preserve"> 发布动态</t>
   </si>
   <si>
-    <t>作为一个吾宠用户，我希望可以去发布并分享宠物的日常和我的养宠的心情，以便于记录我的养宠生活。</t>
+    <t>页面：在发布功能页面，选择图片，编辑文本，点击发布，将该动态发布至动态展示页面</t>
   </si>
   <si>
     <t>打卡</t>
   </si>
   <si>
-    <t>作为一个吾宠用户，我希望可以去自己去设定一些和宠物的互动内容，以便于我能更好地陪伴我的宠物并提高我们之间的亲密度。</t>
+    <t>页面：在打卡页面点击右上角加号至打卡设置页，编辑打卡内容，点击确认，该打卡项显示在打卡页，点击打卡头像变暗表示打卡成功。</t>
   </si>
   <si>
     <t>宠物相关活动</t>
   </si>
   <si>
-    <t>作为一个吾宠用户，我希望可以提供一些线上或线下的有关宠物的活动。</t>
+    <t>页面：在宠物活动页显示活动的标题，点击活动项至活动详情页了解该活动具体内容，并可点击右下角进行报名</t>
   </si>
   <si>
     <t>共享动态</t>
   </si>
   <si>
-    <t>作为一个吾宠用户，我希望可以查看其他养宠人士的养宠日常</t>
+    <t>页面：点击导航栏“动态”，显示所有用户发布的动态。</t>
   </si>
   <si>
     <t>点赞动态</t>
   </si>
   <si>
-    <t>作为一个吾宠用户，我希望可以在共享动态中，点赞自己喜欢的动态。</t>
+    <t>页面：在动态页，点击某动态的“爱心”图标，改变其样式，表示点赞成功</t>
   </si>
   <si>
     <t>打卡提醒时间</t>
   </si>
   <si>
-    <t>作为一个吾宠用户，我希望可以在一定的时间进行提醒，以便于我能不忘记和宠物的互动</t>
+    <t>页面：在打卡设置页，点击“闹钟”图标，弹出设置时间功能，点击确认，设置成功</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>活动城市定位</t>
     </r>
   </si>
   <si>
-    <t>作为一个吾宠用户，我希望可以通过城市定位来显示该城市的所举办活动，以便于我的参与。</t>
+    <t>页面：在活动页顶部，点击城市至城市定位页面，可以点击自动获取定位获取当前所在城市，也可手动选择城市。</t>
   </si>
   <si>
     <t>动态评论</t>
   </si>
   <si>
-    <t>作为一个吾宠用户，我希望可以评论其他用户的动态，以便于我发表自己的观点来互动</t>
+    <t>页面：在动态页，点击“评论”图标，弹出评论功能。</t>
   </si>
   <si>
     <t>打卡奖励</t>
   </si>
   <si>
-    <t>作为一个吾宠用户，我希望可以通过完成打卡来获取一定的奖励，以便于我能更好地执行打卡。</t>
+    <t>页面：通过用户打卡次数来奖励积分</t>
   </si>
   <si>
     <t>我的动态</t>
   </si>
   <si>
-    <t>作为一个吾宠用户，我希望可以保存我所有发布的动态，以便于我查看和回忆。</t>
+    <t>页面：在我的页面点击“我的动态”，展示发布的动态。</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>User DESCRIPTION</t>
+  </si>
+  <si>
+    <t>PROJECT VISION</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER MODULE</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>养宠用户</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>非养宠用户</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户养有宠物，希望使用该软件来分享自己的养宠日常，提供一些功能来丰富和方便养宠生活</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户没有宠物，但想要了解一些宠物信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养宠用户，我希望可以去发布并分享宠物的日常和我的养宠的心情，以便于记录我的养宠生活。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养宠用户，我希望可以去自己去设定一些和宠物的互动内容，以便于我能更好地陪伴我的宠物并提高我们之间的亲密度。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养宠用户，我希望可以提供一些线上或线下的有关宠物的活动。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个用户，我希望可以查看其他养宠人士的养宠日常</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个用户，我希望可以在共享动态中，点赞自己喜欢的动态。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养宠用户，我希望可以在一定的时间进行提醒，以便于我能不忘记和宠物的互动</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个用户，我希望可以评论其他用户的动态，以便于我发表自己的观点来互动</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养宠用户，我希望可以通过完成打卡来获取一定的奖励，以便于我能更好地执行打卡。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个用户，我希望可以通过城市定位来显示该城市的所举办活动，以便于我根据自己的位置来选择参与。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个养宠用户，我希望可以保存我所有发布的动态，以便于我查看、回忆和编辑</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -316,32 +447,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,12 +502,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -364,33 +546,77 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="9"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -398,9 +624,33 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -408,72 +658,101 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,7 +811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -565,26 +844,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -617,23 +879,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -776,251 +1021,525 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0D6B8A-D4AA-4850-B7F7-19CED44A449E}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="91.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:19" ht="69.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9">
+        <v>98</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="9">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9">
+        <v>98</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="9">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9">
+        <v>98</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+    </row>
+    <row r="14" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="9">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9">
+        <v>92</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>88</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>88</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+    </row>
+    <row r="17" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="9">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9">
+        <v>86</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="9">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9">
+        <v>85</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+    </row>
+    <row r="19" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>9</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="F19" s="9">
+        <v>70</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+    </row>
+    <row r="20" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="B20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="9">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>85</v>
-      </c>
+      <c r="F20" s="9">
+        <v>65</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <mergeCells count="18">
+    <mergeCell ref="G17:S17"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="G19:S19"/>
+    <mergeCell ref="G20:S20"/>
+    <mergeCell ref="G12:S12"/>
+    <mergeCell ref="G13:S13"/>
+    <mergeCell ref="G14:S14"/>
+    <mergeCell ref="G15:S15"/>
+    <mergeCell ref="G16:S16"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="G11:S11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>